--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -45,12 +45,65 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+价格类型
+10000:金币  10001:砖石</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+价格</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="374">
   <si>
     <t>TypeID</t>
   </si>
@@ -1212,6 +1265,240 @@
   </si>
   <si>
     <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>PriceType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>450</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>275</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>430</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1589,7 +1876,7 @@
   <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,8 +1906,12 @@
       <c r="F1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1657,8 +1948,12 @@
       <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1695,6 +1990,12 @@
       <c r="F3">
         <v>5</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1711,6 +2012,12 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1727,6 +2034,12 @@
       <c r="F5" s="4">
         <v>5</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -1743,6 +2056,12 @@
       <c r="F6">
         <v>5</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -1759,6 +2078,12 @@
       <c r="F7" s="4">
         <v>5</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1775,6 +2100,12 @@
       <c r="F8" s="4">
         <v>5</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1791,6 +2122,12 @@
       <c r="F9">
         <v>5</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1807,6 +2144,12 @@
       <c r="F10" s="4">
         <v>5</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1823,6 +2166,12 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1839,6 +2188,12 @@
       <c r="F12">
         <v>5</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1854,6 +2209,12 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4">
         <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
@@ -1871,6 +2232,12 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
+      <c r="G14" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -1887,6 +2254,12 @@
       <c r="F15">
         <v>5</v>
       </c>
+      <c r="G15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1903,8 +2276,14 @@
       <c r="F16" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1919,8 +2298,14 @@
       <c r="F17" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +2320,14 @@
       <c r="F18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1951,8 +2342,14 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1967,8 +2364,14 @@
       <c r="F20" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2386,14 @@
       <c r="F21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1999,8 +2408,14 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2015,8 +2430,14 @@
       <c r="F23" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2031,8 +2452,14 @@
       <c r="F24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2047,8 +2474,14 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -2063,8 +2496,14 @@
       <c r="F26" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -2079,8 +2518,14 @@
       <c r="F27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2095,8 +2540,14 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2111,8 +2562,14 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2127,8 +2584,14 @@
       <c r="F30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2143,8 +2606,14 @@
       <c r="F31" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2159,8 +2628,14 @@
       <c r="F32" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -2174,8 +2649,14 @@
       <c r="F33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -2189,8 +2670,14 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -2204,8 +2691,14 @@
       <c r="F35" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -2222,8 +2715,14 @@
       <c r="F36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
@@ -2238,8 +2737,14 @@
       <c r="F37" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>102</v>
       </c>
@@ -2254,8 +2759,14 @@
       <c r="F38" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
@@ -2270,8 +2781,14 @@
       <c r="F39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
@@ -2286,8 +2803,14 @@
       <c r="F40" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
@@ -2304,8 +2827,14 @@
       <c r="F41" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
@@ -2322,8 +2851,14 @@
       <c r="F42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>107</v>
       </c>
@@ -2340,8 +2875,14 @@
       <c r="F43" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
@@ -2358,8 +2899,14 @@
       <c r="F44" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -2376,8 +2923,14 @@
       <c r="F45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
@@ -2392,8 +2945,14 @@
       <c r="F46" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>111</v>
       </c>
@@ -2412,8 +2971,14 @@
       <c r="F47" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>112</v>
       </c>
@@ -2432,8 +2997,14 @@
       <c r="F48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -2450,8 +3021,14 @@
       <c r="F49" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>114</v>
       </c>
@@ -2468,8 +3045,14 @@
       <c r="F50" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>115</v>
       </c>
@@ -2486,8 +3069,14 @@
       <c r="F51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
@@ -2504,8 +3093,14 @@
       <c r="F52" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>117</v>
       </c>
@@ -2522,8 +3117,14 @@
       <c r="F53" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>118</v>
       </c>
@@ -2538,8 +3139,14 @@
       <c r="F54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>119</v>
       </c>
@@ -2556,8 +3163,14 @@
       <c r="F55" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>120</v>
       </c>
@@ -2574,8 +3187,14 @@
       <c r="F56" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -2592,8 +3211,14 @@
       <c r="F57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
@@ -2610,8 +3235,14 @@
       <c r="F58" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>161</v>
       </c>
@@ -2628,8 +3259,14 @@
       <c r="F59" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>162</v>
       </c>
@@ -2644,8 +3281,14 @@
       <c r="F60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>163</v>
       </c>
@@ -2662,8 +3305,14 @@
       <c r="F61" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2680,8 +3329,14 @@
       <c r="F62" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>165</v>
       </c>
@@ -2698,8 +3353,14 @@
       <c r="F63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>166</v>
       </c>
@@ -2714,8 +3375,14 @@
       <c r="F64" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>167</v>
       </c>
@@ -2732,8 +3399,14 @@
       <c r="F65" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>168</v>
       </c>
@@ -2750,8 +3423,14 @@
       <c r="F66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>169</v>
       </c>
@@ -2768,8 +3447,14 @@
       <c r="F67" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>170</v>
       </c>
@@ -2784,8 +3469,14 @@
       <c r="F68" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>171</v>
       </c>
@@ -2800,8 +3491,14 @@
       <c r="F69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>172</v>
       </c>
@@ -2818,8 +3515,14 @@
       <c r="F70" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>224</v>
       </c>
@@ -2838,8 +3541,14 @@
       <c r="F71" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>225</v>
       </c>
@@ -2856,8 +3565,14 @@
       <c r="F72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>226</v>
       </c>
@@ -2874,8 +3589,14 @@
       <c r="F73" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>227</v>
       </c>
@@ -2888,8 +3609,14 @@
       <c r="F74" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>228</v>
       </c>
@@ -2906,8 +3633,14 @@
       <c r="F75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>229</v>
       </c>
@@ -2924,8 +3657,14 @@
       <c r="F76" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>261</v>
       </c>
@@ -2942,8 +3681,14 @@
       <c r="F77" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>262</v>
       </c>
@@ -2958,8 +3703,14 @@
       <c r="F78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>263</v>
       </c>
@@ -2974,8 +3725,14 @@
       <c r="F79" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>264</v>
       </c>
@@ -2992,8 +3749,14 @@
       <c r="F80" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>265</v>
       </c>
@@ -3010,8 +3773,14 @@
       <c r="F81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>266</v>
       </c>
@@ -3028,8 +3797,14 @@
       <c r="F82" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>267</v>
       </c>
@@ -3046,8 +3821,14 @@
       <c r="F83" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>268</v>
       </c>
@@ -3062,8 +3843,14 @@
       <c r="F84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>269</v>
       </c>
@@ -3080,8 +3867,14 @@
       <c r="F85" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>270</v>
       </c>
@@ -3098,8 +3891,14 @@
       <c r="F86" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>271</v>
       </c>
@@ -3114,8 +3913,14 @@
       <c r="F87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G87" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>146</v>
       </c>
@@ -3130,8 +3935,14 @@
       <c r="F88" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>149</v>
       </c>
@@ -3146,8 +3957,14 @@
       <c r="F89" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>152</v>
       </c>
@@ -3162,8 +3979,14 @@
       <c r="F90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G90" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>158</v>
       </c>
@@ -3178,8 +4001,14 @@
       <c r="F91" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G91" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -3194,8 +4023,14 @@
       <c r="F92" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
@@ -3210,8 +4045,14 @@
       <c r="F93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>188</v>
       </c>
@@ -3226,8 +4067,14 @@
       <c r="F94" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>190</v>
       </c>
@@ -3242,8 +4089,14 @@
       <c r="F95" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>194</v>
       </c>
@@ -3258,8 +4111,14 @@
       <c r="F96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G96" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>198</v>
       </c>
@@ -3274,8 +4133,14 @@
       <c r="F97" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G97" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>201</v>
       </c>
@@ -3290,8 +4155,14 @@
       <c r="F98" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G98" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
     </row>
   </sheetData>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="373">
   <si>
     <t>TypeID</t>
   </si>
@@ -225,113 +225,1009 @@
     <t>30</t>
   </si>
   <si>
-    <t>圆环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量手套</t>
-  </si>
-  <si>
-    <t>敏捷便鞋</t>
-  </si>
-  <si>
-    <t>智力斗篷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量腰带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵布带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师长袍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>食人魔之斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢欣之刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护指环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淬毒之珠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击之爪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁子甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短棍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁意头盔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阔剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标枪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘银锤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贤者面罩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复戒指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度之靴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速手套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗魔斗篷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗指环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚无宝石</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>133</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>137</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>139</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>148</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>153</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>156</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>157</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>162</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>163</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>166</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金箍棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>169</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>171,172</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>173</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>177</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>178</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101,105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>186</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,181,182</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,181,182</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>195</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>198</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115,116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>213</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>215</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>218</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>219</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127,128,117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>PriceType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>450</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>275</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>430</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷短刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力匕首</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆环腰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量粗棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆之盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短小棍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命头盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标之枪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法面罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗篷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复指环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法宝石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -339,1165 +1235,267 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>幽魂权杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪烁匕首</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105,106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>116</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>117</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>121</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>怨灵系带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空灵挂件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护腕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位鞋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空明杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者之戒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复头巾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄冥盾牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气勋章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥术鞋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧鼓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗拉迪米尔的祭品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅肯斯姆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞察烟斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力鞋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>132</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>133</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>134</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>135</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>137</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>139</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>86</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>144</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1027</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>148</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1028</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>原力法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达贡之神力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL的神圣法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿托斯之棍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿哈利姆神杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫怨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪恶镰刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>153</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>154</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>156</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>94</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>157</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>162</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>163</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>165</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>166</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎颅锤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂战斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚灵之刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金箍棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代达罗斯之殇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深渊之刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战头巾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刃甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先锋盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>振魂石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑皇杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓦的守护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻影斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血精石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林肯法球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强袭胸甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐鳌之心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>169</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>171,172</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>173</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>177</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>178</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>179</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101,105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>184</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>186</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180,181,182</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,181,182</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>189</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>190</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>195</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>198</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>疯狂面具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>散华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜叉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黯灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂之戟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>静夜对剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯嘉蒂之眼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦之邪力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔刀锋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰歌弓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掠夺者之斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣者遗物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避护符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>振奋宝石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>极限法球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量之球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精气之球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力之球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>209</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>210</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>211</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>115,116</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>213</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>117</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>215</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>218</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>219</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纷争面纱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>127,128,117</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,117</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>143,117</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-  </si>
-  <si>
-    <t>PriceType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>450</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>225</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>275</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>430</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>435</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>260</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
+    <t>绿杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷小刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力小杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量铁锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空明神杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者戒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲盾牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小勋章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘法鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BKB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分身斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵消球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯脸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小电锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减甲刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴械刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击刀锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷弓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量之斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击遗物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性法球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法之球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精气球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力球</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1875,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1904,13 +1902,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1938,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1949,10 +1947,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1980,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1991,10 +1989,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
@@ -2002,10 +2000,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2013,10 +2011,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
@@ -2024,10 +2022,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2035,10 +2033,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
@@ -2046,10 +2044,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2057,10 +2055,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>329</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
@@ -2068,10 +2066,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2079,10 +2077,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>329</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
@@ -2090,10 +2088,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2101,10 +2099,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>329</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
@@ -2112,10 +2110,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2123,10 +2121,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
@@ -2134,10 +2132,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2145,10 +2143,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
@@ -2156,10 +2154,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2167,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
@@ -2178,10 +2176,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2189,10 +2187,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
@@ -2200,10 +2198,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2211,10 +2209,10 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
@@ -2222,21 +2220,21 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
@@ -2244,10 +2242,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>291</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2255,10 +2253,10 @@
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
@@ -2266,10 +2264,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2277,10 +2275,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -2288,10 +2286,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2299,10 +2297,10 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -2310,10 +2308,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2321,10 +2319,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -2332,10 +2330,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2343,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -2354,10 +2352,10 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2365,10 +2363,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -2376,21 +2374,21 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -2398,10 +2396,10 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2409,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -2420,10 +2418,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2431,10 +2429,10 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -2442,10 +2440,10 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2453,10 +2451,10 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -2464,10 +2462,10 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2475,10 +2473,10 @@
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -2486,10 +2484,10 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2497,10 +2495,10 @@
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -2508,10 +2506,10 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2519,10 +2517,10 @@
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -2530,10 +2528,10 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2541,10 +2539,10 @@
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -2552,10 +2550,10 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2563,10 +2561,10 @@
         <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2574,21 +2572,21 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>306</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>340</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2596,29 +2594,29 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F31" s="4">
         <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2629,18 +2627,18 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2">
         <v>124</v>
@@ -2650,18 +2648,18 @@
         <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2">
         <v>125</v>
@@ -2671,18 +2669,18 @@
         <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>341</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2">
         <v>126</v>
@@ -2692,21 +2690,21 @@
         <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
@@ -2716,21 +2714,21 @@
         <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2738,21 +2736,21 @@
         <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2760,21 +2758,21 @@
         <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>343</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2782,21 +2780,21 @@
         <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>344</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2804,21 +2802,21 @@
         <v>5</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2">
         <v>1025</v>
@@ -2828,311 +2826,311 @@
         <v>5</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>346</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F43" s="4">
         <v>5</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="F44" s="4">
         <v>5</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="4">
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="F47" s="4">
         <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>325</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="F49" s="4">
         <v>5</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>353</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="F50" s="4">
         <v>5</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="F52" s="4">
         <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="F53" s="4">
         <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3140,90 +3138,90 @@
         <v>5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>355</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>331</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="F55" s="4">
         <v>5</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>356</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="F56" s="4">
         <v>5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>360</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>361</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="C58" s="2">
         <v>168</v>
@@ -3236,45 +3234,45 @@
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="F59" s="4">
         <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>359</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3282,93 +3280,93 @@
         <v>5</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>357</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="F61" s="4">
         <v>5</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>357</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="F62" s="4">
         <v>5</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>363</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3376,93 +3374,93 @@
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>340</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="F65" s="4">
         <v>5</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>341</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B66" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="F67" s="4">
         <v>5</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>366</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3470,21 +3468,21 @@
         <v>5</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>344</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -3492,116 +3490,116 @@
         <v>5</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>367</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="F70" s="4">
         <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>357</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="F71" s="4">
         <v>5</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="F73" s="4">
         <v>5</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3610,93 +3608,93 @@
         <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75">
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="F76" s="4">
         <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="C77" s="2">
         <v>206</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="F77" s="4">
         <v>5</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3704,21 +3702,21 @@
         <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>369</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3726,117 +3724,117 @@
         <v>5</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="F80" s="4">
         <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>299</v>
+        <v>204</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="F81">
         <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>358</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="F82" s="4">
         <v>5</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="F83" s="4">
         <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3844,66 +3842,66 @@
         <v>5</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="F85" s="4">
         <v>5</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="F86" s="4">
         <v>5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="C87" s="2">
         <v>224</v>
@@ -3914,18 +3912,18 @@
         <v>5</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="C88" s="2">
         <v>225</v>
@@ -3936,18 +3934,18 @@
         <v>5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="C89" s="2">
         <v>226</v>
@@ -3958,18 +3956,18 @@
         <v>5</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="C90" s="2">
         <v>227</v>
@@ -3980,18 +3978,18 @@
         <v>5</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C91" s="2">
         <v>228</v>
@@ -4002,18 +4000,18 @@
         <v>5</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="C92" s="2">
         <v>229</v>
@@ -4024,18 +4022,18 @@
         <v>5</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="C93" s="2">
         <v>230</v>
@@ -4046,18 +4044,18 @@
         <v>5</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="C94" s="2">
         <v>231</v>
@@ -4068,18 +4066,18 @@
         <v>5</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C95" s="2">
         <v>232</v>
@@ -4090,18 +4088,18 @@
         <v>5</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="C96" s="2">
         <v>233</v>
@@ -4112,18 +4110,18 @@
         <v>5</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="C97" s="2">
         <v>234</v>
@@ -4134,18 +4132,18 @@
         <v>5</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="C98" s="2">
         <v>235</v>
@@ -4156,10 +4154,10 @@
         <v>5</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -67,8 +67,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-价格类型
-10000:金币  10001:砖石</t>
+//是否可以回收 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -94,7 +93,138 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+价格类型
+10000:金币  10001:砖石</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 价格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//是否可以装备到身上 1:是 2:否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//是否可以使用 1:是 2:否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//0表示没有特殊情况 1:宝箱</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理参数 特殊情况为1的时候:(宝箱能开出的装备和概率)</t>
         </r>
       </text>
     </comment>
@@ -103,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="390">
   <si>
     <t>TypeID</t>
   </si>
@@ -1496,6 +1626,66 @@
   </si>
   <si>
     <t>活力球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipAble</t>
+  </si>
+  <si>
+    <t>UseAble</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaleAble</t>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺宝奇兵宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93:100;94:200;95:100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1871,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,7 +2075,7 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1904,17 +2094,27 @@
       <c r="F1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="J1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1930,8 +2130,9 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1946,16 +2147,24 @@
       <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1972,8 +2181,9 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1988,14 +2198,26 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J3" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2010,14 +2232,26 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>223</v>
+      <c r="G4" s="4">
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2032,14 +2266,26 @@
       <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>223</v>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2054,14 +2300,26 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>223</v>
+      <c r="G6" s="4">
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J6" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2076,14 +2334,26 @@
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>223</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2098,14 +2368,26 @@
       <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>223</v>
+      <c r="G8" s="4">
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2120,14 +2402,26 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>223</v>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2142,14 +2436,26 @@
       <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>223</v>
+      <c r="G10" s="4">
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J10" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2164,14 +2470,26 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>223</v>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2186,14 +2504,26 @@
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>223</v>
+      <c r="G12" s="4">
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J12" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2208,14 +2538,26 @@
       <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>223</v>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J13" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2230,14 +2572,26 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>223</v>
+      <c r="G14" s="4">
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -2252,14 +2606,26 @@
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>223</v>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2274,14 +2640,26 @@
       <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>223</v>
+      <c r="G16" s="4">
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J16" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2296,14 +2674,26 @@
       <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>223</v>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J17" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2318,14 +2708,26 @@
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>223</v>
+      <c r="G18" s="4">
+        <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J18" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2340,14 +2742,26 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>223</v>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J19" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2362,14 +2776,26 @@
       <c r="F20" s="4">
         <v>5</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>223</v>
+      <c r="G20" s="4">
+        <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J20" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2384,14 +2810,26 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>223</v>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J21" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2406,14 +2844,26 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>223</v>
+      <c r="G22" s="4">
+        <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J22" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2428,14 +2878,26 @@
       <c r="F23" s="4">
         <v>5</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>223</v>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2450,14 +2912,26 @@
       <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>223</v>
+      <c r="G24" s="4">
+        <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J24" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2472,14 +2946,26 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>223</v>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J25" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -2494,14 +2980,26 @@
       <c r="F26" s="4">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>223</v>
+      <c r="G26" s="4">
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J26" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -2516,14 +3014,26 @@
       <c r="F27">
         <v>5</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>223</v>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J27" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2538,14 +3048,26 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>223</v>
+      <c r="G28" s="4">
+        <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J28" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2560,14 +3082,26 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>223</v>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J29" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2582,14 +3116,26 @@
       <c r="F30">
         <v>5</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>223</v>
+      <c r="G30" s="4">
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J30" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2604,14 +3150,26 @@
       <c r="F31" s="4">
         <v>5</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>223</v>
+      <c r="G31">
+        <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J31" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2626,14 +3184,26 @@
       <c r="F32" s="4">
         <v>5</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>223</v>
+      <c r="G32" s="4">
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J32" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -2647,14 +3217,26 @@
       <c r="F33">
         <v>5</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>223</v>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J33" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -2668,14 +3250,26 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>223</v>
+      <c r="G34" s="4">
+        <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J34" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -2689,14 +3283,26 @@
       <c r="F35" s="4">
         <v>5</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>223</v>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J35" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2713,14 +3319,26 @@
       <c r="F36">
         <v>5</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>223</v>
+      <c r="G36" s="4">
+        <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J36" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -2735,14 +3353,26 @@
       <c r="F37" s="4">
         <v>5</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>223</v>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J37" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>71</v>
       </c>
@@ -2757,14 +3387,26 @@
       <c r="F38" s="4">
         <v>5</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>223</v>
+      <c r="G38" s="4">
+        <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J38" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2779,14 +3421,26 @@
       <c r="F39">
         <v>5</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>223</v>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J39" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
@@ -2801,14 +3455,26 @@
       <c r="F40" s="4">
         <v>5</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>223</v>
+      <c r="G40" s="4">
+        <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J40" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -2825,14 +3491,26 @@
       <c r="F41" s="4">
         <v>5</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>223</v>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J41" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -2849,14 +3527,26 @@
       <c r="F42">
         <v>5</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>223</v>
+      <c r="G42" s="4">
+        <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J42" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -2873,14 +3563,26 @@
       <c r="F43" s="4">
         <v>5</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>223</v>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J43" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -2897,14 +3599,26 @@
       <c r="F44" s="4">
         <v>5</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>223</v>
+      <c r="G44" s="4">
+        <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J44" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -2921,14 +3635,26 @@
       <c r="F45">
         <v>5</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>223</v>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J45" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -2943,14 +3669,26 @@
       <c r="F46" s="4">
         <v>5</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>223</v>
+      <c r="G46" s="4">
+        <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J46" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -2969,14 +3707,26 @@
       <c r="F47" s="4">
         <v>5</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>223</v>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J47" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>81</v>
       </c>
@@ -2995,14 +3745,26 @@
       <c r="F48">
         <v>5</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>223</v>
+      <c r="G48" s="4">
+        <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J48" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>82</v>
       </c>
@@ -3019,14 +3781,26 @@
       <c r="F49" s="4">
         <v>5</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>223</v>
+      <c r="G49">
+        <v>1</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J49" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
@@ -3043,14 +3817,26 @@
       <c r="F50" s="4">
         <v>5</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>223</v>
+      <c r="G50" s="4">
+        <v>1</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J50" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -3067,14 +3853,26 @@
       <c r="F51">
         <v>5</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>223</v>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J51" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -3091,14 +3889,26 @@
       <c r="F52" s="4">
         <v>5</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>223</v>
+      <c r="G52" s="4">
+        <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J52" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
@@ -3115,14 +3925,26 @@
       <c r="F53" s="4">
         <v>5</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>223</v>
+      <c r="G53">
+        <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J53" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>87</v>
       </c>
@@ -3137,14 +3959,26 @@
       <c r="F54">
         <v>5</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>223</v>
+      <c r="G54" s="4">
+        <v>1</v>
       </c>
       <c r="H54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J54" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>88</v>
       </c>
@@ -3161,14 +3995,26 @@
       <c r="F55" s="4">
         <v>5</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>223</v>
+      <c r="G55">
+        <v>1</v>
       </c>
       <c r="H55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J55" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>89</v>
       </c>
@@ -3185,14 +4031,26 @@
       <c r="F56" s="4">
         <v>5</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>223</v>
+      <c r="G56" s="4">
+        <v>1</v>
       </c>
       <c r="H56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J56" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>90</v>
       </c>
@@ -3209,14 +4067,26 @@
       <c r="F57">
         <v>5</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>223</v>
+      <c r="G57">
+        <v>1</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J57" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -3233,14 +4103,26 @@
       <c r="F58" s="4">
         <v>5</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>223</v>
+      <c r="G58" s="4">
+        <v>1</v>
       </c>
       <c r="H58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J58" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -3257,14 +4139,26 @@
       <c r="F59" s="4">
         <v>5</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>223</v>
+      <c r="G59">
+        <v>1</v>
       </c>
       <c r="H59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J59" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -3279,14 +4173,26 @@
       <c r="F60">
         <v>5</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>223</v>
+      <c r="G60" s="4">
+        <v>1</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J60" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -3303,14 +4209,26 @@
       <c r="F61" s="4">
         <v>5</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>223</v>
+      <c r="G61">
+        <v>1</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J61" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -3327,14 +4245,26 @@
       <c r="F62" s="4">
         <v>5</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>223</v>
+      <c r="G62" s="4">
+        <v>1</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J62" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -3351,14 +4281,26 @@
       <c r="F63">
         <v>5</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>223</v>
+      <c r="G63">
+        <v>1</v>
       </c>
       <c r="H63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J63" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>119</v>
       </c>
@@ -3373,14 +4315,26 @@
       <c r="F64" s="4">
         <v>5</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>223</v>
+      <c r="G64" s="4">
+        <v>1</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J64" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
@@ -3397,14 +4351,26 @@
       <c r="F65" s="4">
         <v>5</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>223</v>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J65" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -3421,14 +4387,26 @@
       <c r="F66">
         <v>5</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>223</v>
+      <c r="G66" s="4">
+        <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J66" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -3445,14 +4423,26 @@
       <c r="F67" s="4">
         <v>5</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>223</v>
+      <c r="G67">
+        <v>1</v>
       </c>
       <c r="H67" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J67" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
@@ -3467,14 +4457,26 @@
       <c r="F68" s="4">
         <v>5</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>223</v>
+      <c r="G68" s="4">
+        <v>1</v>
       </c>
       <c r="H68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J68" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -3489,14 +4491,26 @@
       <c r="F69">
         <v>5</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>223</v>
+      <c r="G69">
+        <v>1</v>
       </c>
       <c r="H69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J69" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
@@ -3513,14 +4527,26 @@
       <c r="F70" s="4">
         <v>5</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>223</v>
+      <c r="G70" s="4">
+        <v>1</v>
       </c>
       <c r="H70" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J70" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>151</v>
       </c>
@@ -3539,14 +4565,26 @@
       <c r="F71" s="4">
         <v>5</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>223</v>
+      <c r="G71">
+        <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>152</v>
       </c>
@@ -3563,14 +4601,26 @@
       <c r="F72">
         <v>5</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>223</v>
+      <c r="G72" s="4">
+        <v>1</v>
       </c>
       <c r="H72" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J72" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>153</v>
       </c>
@@ -3587,14 +4637,26 @@
       <c r="F73" s="4">
         <v>5</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>223</v>
+      <c r="G73">
+        <v>1</v>
       </c>
       <c r="H73" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J73" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -3607,14 +4669,26 @@
       <c r="F74" s="4">
         <v>5</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>223</v>
+      <c r="G74" s="4">
+        <v>1</v>
       </c>
       <c r="H74" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J74" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -3631,14 +4705,26 @@
       <c r="F75">
         <v>5</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>223</v>
+      <c r="G75">
+        <v>1</v>
       </c>
       <c r="H75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J75" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>156</v>
       </c>
@@ -3655,14 +4741,26 @@
       <c r="F76" s="4">
         <v>5</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>223</v>
+      <c r="G76" s="4">
+        <v>1</v>
       </c>
       <c r="H76" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J76" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>188</v>
       </c>
@@ -3679,14 +4777,26 @@
       <c r="F77" s="4">
         <v>5</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>223</v>
+      <c r="G77">
+        <v>1</v>
       </c>
       <c r="H77" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J77" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>189</v>
       </c>
@@ -3701,14 +4811,26 @@
       <c r="F78">
         <v>5</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>223</v>
+      <c r="G78" s="4">
+        <v>1</v>
       </c>
       <c r="H78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J78" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>190</v>
       </c>
@@ -3723,14 +4845,26 @@
       <c r="F79" s="4">
         <v>5</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>223</v>
+      <c r="G79">
+        <v>1</v>
       </c>
       <c r="H79" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J79" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>191</v>
       </c>
@@ -3747,14 +4881,26 @@
       <c r="F80" s="4">
         <v>5</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>223</v>
+      <c r="G80" s="4">
+        <v>1</v>
       </c>
       <c r="H80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J80" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>192</v>
       </c>
@@ -3771,14 +4917,26 @@
       <c r="F81">
         <v>5</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>223</v>
+      <c r="G81">
+        <v>1</v>
       </c>
       <c r="H81" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J81" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3795,14 +4953,26 @@
       <c r="F82" s="4">
         <v>5</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>223</v>
+      <c r="G82" s="4">
+        <v>1</v>
       </c>
       <c r="H82" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J82" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>194</v>
       </c>
@@ -3819,14 +4989,26 @@
       <c r="F83" s="4">
         <v>5</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>223</v>
+      <c r="G83">
+        <v>1</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J83" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>195</v>
       </c>
@@ -3841,14 +5023,26 @@
       <c r="F84">
         <v>5</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>223</v>
+      <c r="G84" s="4">
+        <v>1</v>
       </c>
       <c r="H84" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J84" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>196</v>
       </c>
@@ -3865,14 +5059,26 @@
       <c r="F85" s="4">
         <v>5</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>223</v>
+      <c r="G85">
+        <v>1</v>
       </c>
       <c r="H85" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J85" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>197</v>
       </c>
@@ -3889,14 +5095,26 @@
       <c r="F86" s="4">
         <v>5</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>223</v>
+      <c r="G86" s="4">
+        <v>1</v>
       </c>
       <c r="H86" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J86" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>198</v>
       </c>
@@ -3911,14 +5129,26 @@
       <c r="F87">
         <v>5</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>223</v>
+      <c r="G87">
+        <v>1</v>
       </c>
       <c r="H87" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I87" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J87" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>99</v>
       </c>
@@ -3933,14 +5163,26 @@
       <c r="F88" s="4">
         <v>5</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>223</v>
+      <c r="G88" s="4">
+        <v>1</v>
       </c>
       <c r="H88" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J88" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>102</v>
       </c>
@@ -3955,14 +5197,26 @@
       <c r="F89" s="4">
         <v>5</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>223</v>
+      <c r="G89">
+        <v>1</v>
       </c>
       <c r="H89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J89" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>105</v>
       </c>
@@ -3977,14 +5231,26 @@
       <c r="F90">
         <v>5</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>223</v>
+      <c r="G90" s="4">
+        <v>1</v>
       </c>
       <c r="H90" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J90" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>111</v>
       </c>
@@ -3999,14 +5265,26 @@
       <c r="F91" s="4">
         <v>5</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>223</v>
+      <c r="G91">
+        <v>1</v>
       </c>
       <c r="H91" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J91" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>127</v>
       </c>
@@ -4021,14 +5299,26 @@
       <c r="F92" s="4">
         <v>5</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>223</v>
+      <c r="G92" s="4">
+        <v>1</v>
       </c>
       <c r="H92" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J92" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>129</v>
       </c>
@@ -4043,14 +5333,26 @@
       <c r="F93">
         <v>5</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>223</v>
+      <c r="G93">
+        <v>1</v>
       </c>
       <c r="H93" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J93" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>133</v>
       </c>
@@ -4065,14 +5367,26 @@
       <c r="F94" s="4">
         <v>5</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>223</v>
+      <c r="G94" s="4">
+        <v>1</v>
       </c>
       <c r="H94" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J94" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>135</v>
       </c>
@@ -4087,14 +5401,26 @@
       <c r="F95" s="4">
         <v>5</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>223</v>
+      <c r="G95">
+        <v>1</v>
       </c>
       <c r="H95" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J95" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>139</v>
       </c>
@@ -4109,14 +5435,26 @@
       <c r="F96">
         <v>5</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>223</v>
+      <c r="G96" s="4">
+        <v>1</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J96" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>143</v>
       </c>
@@ -4131,14 +5469,26 @@
       <c r="F97" s="4">
         <v>5</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>223</v>
+      <c r="G97">
+        <v>1</v>
       </c>
       <c r="H97" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J97" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>146</v>
       </c>
@@ -4153,15 +5503,59 @@
       <c r="F98" s="4">
         <v>5</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>223</v>
+      <c r="G98" s="4">
+        <v>1</v>
       </c>
       <c r="H98" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A99" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="4">
+        <v>5</v>
+      </c>
+      <c r="G99" s="4">
+        <v>2</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -1685,7 +1685,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>93:100;94:200;95:100</t>
+    <t>50:300;51:300;52:300;47:250;54:100;55:50;56:50;57:300;58:200;59:100;60:100;61:100;62:50;63:50;64:50;69:150;70:100;71:100;72:100;74:100;75:50;79:250;80:250;81:150;82:150;83:100;84:50;85:50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2063,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -198,11 +198,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//装备到单位身上需要的单位等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //0表示没有特殊情况 1:宝箱</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="439">
   <si>
     <t>TypeID</t>
   </si>
@@ -1686,6 +1712,201 @@
   </si>
   <si>
     <t>50:300;51:300;52:300;47:250;54:100;55:50;56:50;57:300;58:200;59:100;60:100;61:100;62:50;63:50;64:50;69:150;70:100;71:100;72:100;74:100;75:50;79:250;80:250;81:150;82:150;83:100;84:50;85:50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipNeedLevel</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2061,21 +2282,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC99"/>
+  <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="O105" sqref="O105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,12 +2331,14 @@
         <v>374</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -2131,8 +2354,9 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2163,9 +2387,11 @@
         <v>380</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -2182,8 +2408,9 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2214,10 +2441,13 @@
         <v>381</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2248,10 +2478,13 @@
         <v>379</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2282,10 +2515,13 @@
         <v>379</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2316,10 +2552,13 @@
         <v>379</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2350,10 +2589,13 @@
         <v>379</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2384,10 +2626,13 @@
         <v>379</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2418,10 +2663,13 @@
         <v>379</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2452,10 +2700,13 @@
         <v>379</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2486,10 +2737,13 @@
         <v>379</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2520,10 +2774,13 @@
         <v>379</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2554,10 +2811,13 @@
         <v>379</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2588,10 +2848,13 @@
         <v>379</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -2622,10 +2885,13 @@
         <v>379</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -2656,10 +2922,13 @@
         <v>379</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -2690,10 +2959,13 @@
         <v>379</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2724,10 +2996,13 @@
         <v>379</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2758,10 +3033,13 @@
         <v>379</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2792,10 +3070,13 @@
         <v>379</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2826,10 +3107,13 @@
         <v>379</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -2860,10 +3144,13 @@
         <v>379</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2894,10 +3181,13 @@
         <v>379</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -2928,10 +3218,13 @@
         <v>379</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2962,10 +3255,13 @@
         <v>379</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -2996,10 +3292,13 @@
         <v>379</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -3030,10 +3329,13 @@
         <v>379</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -3064,10 +3366,13 @@
         <v>379</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -3098,10 +3403,13 @@
         <v>379</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -3132,10 +3440,13 @@
         <v>379</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -3166,10 +3477,13 @@
         <v>379</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -3200,10 +3514,13 @@
         <v>379</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3233,10 +3550,13 @@
         <v>379</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -3266,10 +3586,13 @@
         <v>379</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -3299,10 +3622,13 @@
         <v>379</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -3335,10 +3661,13 @@
         <v>379</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -3369,10 +3698,13 @@
         <v>379</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>71</v>
       </c>
@@ -3403,10 +3735,13 @@
         <v>379</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -3437,10 +3772,13 @@
         <v>379</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
@@ -3471,10 +3809,13 @@
         <v>379</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -3507,10 +3848,13 @@
         <v>379</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -3543,10 +3887,13 @@
         <v>379</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -3579,10 +3926,13 @@
         <v>379</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -3615,10 +3965,13 @@
         <v>379</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -3651,10 +4004,13 @@
         <v>379</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -3685,10 +4041,13 @@
         <v>379</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -3723,10 +4082,13 @@
         <v>379</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>81</v>
       </c>
@@ -3761,10 +4123,13 @@
         <v>379</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>82</v>
       </c>
@@ -3797,10 +4162,13 @@
         <v>379</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
@@ -3833,10 +4201,13 @@
         <v>379</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -3869,10 +4240,13 @@
         <v>379</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -3905,10 +4279,13 @@
         <v>379</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
@@ -3941,10 +4318,13 @@
         <v>379</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>87</v>
       </c>
@@ -3975,10 +4355,13 @@
         <v>379</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>88</v>
       </c>
@@ -4011,10 +4394,13 @@
         <v>379</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>89</v>
       </c>
@@ -4047,10 +4433,13 @@
         <v>379</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>90</v>
       </c>
@@ -4083,10 +4472,13 @@
         <v>379</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -4119,10 +4511,13 @@
         <v>379</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -4155,10 +4550,13 @@
         <v>379</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
@@ -4189,10 +4587,13 @@
         <v>379</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -4225,10 +4626,13 @@
         <v>379</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -4261,10 +4665,13 @@
         <v>379</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -4297,10 +4704,13 @@
         <v>379</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>119</v>
       </c>
@@ -4331,10 +4741,13 @@
         <v>379</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
@@ -4367,10 +4780,13 @@
         <v>379</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
@@ -4403,10 +4819,13 @@
         <v>379</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -4439,10 +4858,13 @@
         <v>379</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
@@ -4473,10 +4895,13 @@
         <v>379</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -4507,10 +4932,13 @@
         <v>379</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
@@ -4543,10 +4971,13 @@
         <v>379</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>151</v>
       </c>
@@ -4581,10 +5012,13 @@
         <v>379</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>152</v>
       </c>
@@ -4617,10 +5051,13 @@
         <v>379</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>153</v>
       </c>
@@ -4653,10 +5090,13 @@
         <v>379</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -4685,10 +5125,13 @@
         <v>379</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -4721,10 +5164,13 @@
         <v>379</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>156</v>
       </c>
@@ -4757,10 +5203,13 @@
         <v>379</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>188</v>
       </c>
@@ -4793,10 +5242,13 @@
         <v>379</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>189</v>
       </c>
@@ -4827,10 +5279,13 @@
         <v>379</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>190</v>
       </c>
@@ -4861,10 +5316,13 @@
         <v>379</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>191</v>
       </c>
@@ -4897,10 +5355,13 @@
         <v>379</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>192</v>
       </c>
@@ -4933,10 +5394,13 @@
         <v>379</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -4969,10 +5433,13 @@
         <v>379</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>194</v>
       </c>
@@ -5005,10 +5472,13 @@
         <v>379</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>195</v>
       </c>
@@ -5039,10 +5509,13 @@
         <v>379</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>196</v>
       </c>
@@ -5075,10 +5548,13 @@
         <v>379</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>197</v>
       </c>
@@ -5111,10 +5587,13 @@
         <v>379</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>198</v>
       </c>
@@ -5145,10 +5624,13 @@
         <v>379</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>99</v>
       </c>
@@ -5179,10 +5661,13 @@
         <v>379</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>102</v>
       </c>
@@ -5213,10 +5698,13 @@
         <v>379</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>105</v>
       </c>
@@ -5247,10 +5735,13 @@
         <v>379</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>111</v>
       </c>
@@ -5281,10 +5772,13 @@
         <v>379</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>127</v>
       </c>
@@ -5315,10 +5809,13 @@
         <v>379</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>129</v>
       </c>
@@ -5349,10 +5846,13 @@
         <v>379</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>133</v>
       </c>
@@ -5383,10 +5883,13 @@
         <v>379</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>135</v>
       </c>
@@ -5417,10 +5920,13 @@
         <v>379</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>139</v>
       </c>
@@ -5451,10 +5957,13 @@
         <v>379</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>143</v>
       </c>
@@ -5485,10 +5994,13 @@
         <v>379</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>146</v>
       </c>
@@ -5519,10 +6031,13 @@
         <v>379</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>385</v>
       </c>
@@ -5551,9 +6066,12 @@
         <v>388</v>
       </c>
       <c r="L99" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="M99" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="N99" s="2" t="s">
         <v>389</v>
       </c>
     </row>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="442">
   <si>
     <t>TypeID</t>
   </si>
@@ -1391,10 +1391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>绿杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跳刀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1475,10 +1471,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>吹风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿托斯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1794,11 +1786,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11</t>
+    <t>绿戒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹风书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1806,107 +1906,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2284,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2316,7 +2328,7 @@
         <v>218</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>219</v>
@@ -2325,19 +2337,19 @@
         <v>220</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -2381,16 +2393,16 @@
         <v>231</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2435,16 +2447,16 @@
         <v>232</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
@@ -2472,16 +2484,16 @@
         <v>232</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
@@ -2509,16 +2521,16 @@
         <v>65</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
@@ -2546,16 +2558,16 @@
         <v>233</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
@@ -2583,16 +2595,16 @@
         <v>233</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
@@ -2620,16 +2632,16 @@
         <v>233</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
@@ -2657,16 +2669,16 @@
         <v>234</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
@@ -2694,16 +2706,16 @@
         <v>234</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
@@ -2731,16 +2743,16 @@
         <v>234</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
@@ -2768,16 +2780,16 @@
         <v>235</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
@@ -2805,16 +2817,16 @@
         <v>236</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
@@ -2842,16 +2854,16 @@
         <v>230</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
@@ -2879,16 +2891,16 @@
         <v>202</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
@@ -2916,16 +2928,16 @@
         <v>237</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -2953,16 +2965,16 @@
         <v>238</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -2990,16 +3002,16 @@
         <v>224</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -3027,16 +3039,16 @@
         <v>239</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -3064,16 +3076,16 @@
         <v>240</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -3101,16 +3113,16 @@
         <v>226</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -3138,16 +3150,16 @@
         <v>241</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -3175,16 +3187,16 @@
         <v>242</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -3212,16 +3224,16 @@
         <v>109</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -3249,16 +3261,16 @@
         <v>236</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -3286,16 +3298,16 @@
         <v>236</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -3323,16 +3335,16 @@
         <v>237</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
@@ -3360,16 +3372,16 @@
         <v>243</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -3397,16 +3409,16 @@
         <v>243</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -3434,16 +3446,16 @@
         <v>244</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
@@ -3451,7 +3463,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>434</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3471,16 +3483,16 @@
         <v>228</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -3488,7 +3500,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3508,16 +3520,16 @@
         <v>225</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
@@ -3525,7 +3537,7 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2">
         <v>124</v>
@@ -3544,16 +3556,16 @@
         <v>236</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
@@ -3561,7 +3573,7 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2">
         <v>125</v>
@@ -3580,16 +3592,16 @@
         <v>245</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -3597,7 +3609,7 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2">
         <v>126</v>
@@ -3616,16 +3628,16 @@
         <v>236</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
@@ -3633,7 +3645,7 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>215</v>
@@ -3655,16 +3667,16 @@
         <v>246</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
@@ -3672,7 +3684,7 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>216</v>
@@ -3692,16 +3704,16 @@
         <v>227</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
@@ -3709,7 +3721,7 @@
         <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>91</v>
@@ -3729,16 +3741,16 @@
         <v>247</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -3746,7 +3758,7 @@
         <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>92</v>
@@ -3766,16 +3778,16 @@
         <v>248</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -3783,7 +3795,7 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>93</v>
@@ -3803,16 +3815,16 @@
         <v>236</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -3820,7 +3832,7 @@
         <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>94</v>
@@ -3842,16 +3854,16 @@
         <v>249</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -3859,7 +3871,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>95</v>
@@ -3881,16 +3893,16 @@
         <v>250</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -3898,7 +3910,7 @@
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>96</v>
@@ -3920,16 +3932,16 @@
         <v>251</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -3937,7 +3949,7 @@
         <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>217</v>
@@ -3959,16 +3971,16 @@
         <v>252</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -3976,7 +3988,7 @@
         <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>101</v>
@@ -3998,16 +4010,16 @@
         <v>253</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -4015,7 +4027,7 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
@@ -4035,16 +4047,16 @@
         <v>254</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -4052,7 +4064,7 @@
         <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>108</v>
@@ -4076,16 +4088,16 @@
         <v>255</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -4093,7 +4105,7 @@
         <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>109</v>
@@ -4117,16 +4129,16 @@
         <v>256</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
@@ -4134,7 +4146,7 @@
         <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>126</v>
@@ -4156,16 +4168,16 @@
         <v>257</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
@@ -4173,7 +4185,7 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>131</v>
@@ -4195,16 +4207,16 @@
         <v>258</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
@@ -4212,7 +4224,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>132</v>
@@ -4234,16 +4246,16 @@
         <v>229</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
@@ -4251,7 +4263,7 @@
         <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>435</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>137</v>
@@ -4273,16 +4285,16 @@
         <v>229</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
@@ -4290,7 +4302,7 @@
         <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>138</v>
@@ -4312,16 +4324,16 @@
         <v>229</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
@@ -4329,7 +4341,7 @@
         <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>141</v>
@@ -4349,16 +4361,16 @@
         <v>259</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
@@ -4366,7 +4378,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>142</v>
@@ -4388,16 +4400,16 @@
         <v>260</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
@@ -4405,7 +4417,7 @@
         <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>145</v>
@@ -4427,16 +4439,16 @@
         <v>264</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
@@ -4444,7 +4456,7 @@
         <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>148</v>
@@ -4466,16 +4478,16 @@
         <v>265</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
@@ -4483,7 +4495,7 @@
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C58" s="2">
         <v>168</v>
@@ -4505,16 +4517,16 @@
         <v>266</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
@@ -4522,7 +4534,7 @@
         <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>157</v>
@@ -4544,16 +4556,16 @@
         <v>263</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
@@ -4561,7 +4573,7 @@
         <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>158</v>
@@ -4581,16 +4593,16 @@
         <v>261</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
@@ -4598,7 +4610,7 @@
         <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>159</v>
@@ -4620,16 +4632,16 @@
         <v>261</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
@@ -4659,16 +4671,16 @@
         <v>267</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
@@ -4676,7 +4688,7 @@
         <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>164</v>
@@ -4698,16 +4710,16 @@
         <v>268</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
@@ -4715,7 +4727,7 @@
         <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>165</v>
@@ -4735,16 +4747,16 @@
         <v>268</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
@@ -4752,7 +4764,7 @@
         <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>172</v>
@@ -4774,16 +4786,16 @@
         <v>268</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
@@ -4791,7 +4803,7 @@
         <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>168</v>
@@ -4813,16 +4825,16 @@
         <v>254</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
@@ -4830,7 +4842,7 @@
         <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>170</v>
@@ -4852,16 +4864,16 @@
         <v>270</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
@@ -4869,7 +4881,7 @@
         <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>173</v>
@@ -4889,16 +4901,16 @@
         <v>228</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
@@ -4906,7 +4918,7 @@
         <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>174</v>
@@ -4926,16 +4938,16 @@
         <v>271</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
@@ -4943,7 +4955,7 @@
         <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>176</v>
@@ -4965,16 +4977,16 @@
         <v>261</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
@@ -4982,7 +4994,7 @@
         <v>151</v>
       </c>
       <c r="B71" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>178</v>
@@ -5006,16 +5018,16 @@
         <v>269</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
@@ -5023,7 +5035,7 @@
         <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>181</v>
@@ -5045,16 +5057,16 @@
         <v>268</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
@@ -5062,7 +5074,7 @@
         <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>182</v>
@@ -5084,16 +5096,16 @@
         <v>268</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
@@ -5101,7 +5113,7 @@
         <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -5119,16 +5131,16 @@
         <v>268</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
@@ -5136,7 +5148,7 @@
         <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>185</v>
@@ -5158,16 +5170,16 @@
         <v>268</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
@@ -5175,7 +5187,7 @@
         <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>186</v>
@@ -5197,16 +5209,16 @@
         <v>268</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
@@ -5214,7 +5226,7 @@
         <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C77" s="2">
         <v>206</v>
@@ -5236,16 +5248,16 @@
         <v>254</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
@@ -5253,7 +5265,7 @@
         <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>200</v>
@@ -5273,16 +5285,16 @@
         <v>273</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
@@ -5290,7 +5302,7 @@
         <v>190</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>201</v>
@@ -5310,16 +5322,16 @@
         <v>251</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
@@ -5327,7 +5339,7 @@
         <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>202</v>
@@ -5349,16 +5361,16 @@
         <v>229</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
@@ -5366,7 +5378,7 @@
         <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>204</v>
@@ -5388,16 +5400,16 @@
         <v>262</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
@@ -5405,7 +5417,7 @@
         <v>193</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>206</v>
@@ -5427,16 +5439,16 @@
         <v>272</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
@@ -5444,7 +5456,7 @@
         <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>208</v>
@@ -5466,16 +5478,16 @@
         <v>272</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
@@ -5483,7 +5495,7 @@
         <v>195</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>210</v>
@@ -5503,16 +5515,16 @@
         <v>274</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.15">
@@ -5520,7 +5532,7 @@
         <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>211</v>
@@ -5542,16 +5554,16 @@
         <v>268</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">
@@ -5559,7 +5571,7 @@
         <v>197</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>213</v>
@@ -5581,16 +5593,16 @@
         <v>268</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.15">
@@ -5598,7 +5610,7 @@
         <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C87" s="2">
         <v>224</v>
@@ -5618,16 +5630,16 @@
         <v>254</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.15">
@@ -5635,7 +5647,7 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C88" s="2">
         <v>225</v>
@@ -5655,16 +5667,16 @@
         <v>275</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.15">
@@ -5672,7 +5684,7 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C89" s="2">
         <v>226</v>
@@ -5692,16 +5704,16 @@
         <v>276</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.15">
@@ -5709,7 +5721,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C90" s="2">
         <v>227</v>
@@ -5729,16 +5741,16 @@
         <v>277</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.15">
@@ -5746,7 +5758,7 @@
         <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C91" s="2">
         <v>228</v>
@@ -5766,16 +5778,16 @@
         <v>228</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.15">
@@ -5783,7 +5795,7 @@
         <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C92" s="2">
         <v>229</v>
@@ -5803,16 +5815,16 @@
         <v>228</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.15">
@@ -5820,7 +5832,7 @@
         <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C93" s="2">
         <v>230</v>
@@ -5840,16 +5852,16 @@
         <v>228</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.15">
@@ -5857,7 +5869,7 @@
         <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C94" s="2">
         <v>231</v>
@@ -5877,16 +5889,16 @@
         <v>228</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.15">
@@ -5894,7 +5906,7 @@
         <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C95" s="2">
         <v>232</v>
@@ -5914,16 +5926,16 @@
         <v>276</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.15">
@@ -5931,7 +5943,7 @@
         <v>139</v>
       </c>
       <c r="B96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C96" s="2">
         <v>233</v>
@@ -5951,16 +5963,16 @@
         <v>246</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
@@ -5968,7 +5980,7 @@
         <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C97" s="2">
         <v>234</v>
@@ -5988,16 +6000,16 @@
         <v>246</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
@@ -6005,7 +6017,7 @@
         <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C98" s="2">
         <v>235</v>
@@ -6025,24 +6037,24 @@
         <v>246</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -6057,22 +6069,22 @@
         <v>223</v>
       </c>
       <c r="I99" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
